--- a/Dados CCIR.xlsx
+++ b/Dados CCIR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tales\Documents\Projetos\Gerar CCIR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tales\Desktop\Gerar CCIR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DCCD05-813F-439A-8D61-FB76BC8302D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF50C170-E760-41EA-867B-BF4E481FC176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Código do Imóvel Rural:</t>
   </si>
@@ -45,6 +45,9 @@
     <t>IBIRÁ</t>
   </si>
   <si>
+    <t>URUPÊS</t>
+  </si>
+  <si>
     <t>Tipo de Pessoa:</t>
   </si>
   <si>
@@ -57,25 +60,25 @@
     <t>Produtor Rural (Pessoa Física)</t>
   </si>
   <si>
-    <t xml:space="preserve">610.054.001.031-1 </t>
-  </si>
-  <si>
-    <t>368.083.868-97</t>
-  </si>
-  <si>
-    <t>950.173.371.203-3</t>
-  </si>
-  <si>
-    <t>005.225.528-03</t>
-  </si>
-  <si>
     <t>Nome do Declarante:</t>
   </si>
   <si>
-    <t>Adalberto Palomo</t>
-  </si>
-  <si>
-    <t>Diego Augusto de Carvalho Mugio</t>
+    <t>José Aparecido</t>
+  </si>
+  <si>
+    <t>Maria Graça</t>
+  </si>
+  <si>
+    <t>999.999.999-99</t>
+  </si>
+  <si>
+    <t>888.888.888-88</t>
+  </si>
+  <si>
+    <t>888.888.888.888-8</t>
+  </si>
+  <si>
+    <t>999.999.999.999-9</t>
   </si>
 </sst>
 </file>
@@ -411,7 +414,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,7 +425,7 @@
     <col min="4" max="4" width="24.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="24.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -436,21 +439,21 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -459,39 +462,39 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
